--- a/快乐阳光-监测片单.xlsx
+++ b/快乐阳光-监测片单.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1980" windowWidth="14800" windowHeight="12600"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>快乐大本营</t>
   </si>
@@ -106,13 +107,22 @@
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明若晓溪</t>
+  </si>
+  <si>
+    <t>旋风少女</t>
+  </si>
+  <si>
+    <t>偶像来了</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +135,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,13 +171,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,7 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -598,4 +642,46 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>